--- a/inputs/st.xlsx
+++ b/inputs/st.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12880E5C-6BB8-478C-8A51-D60E5CCDC436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47F6EB-B57A-4575-8FBB-44694D18D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>356760.80000000005</v>
+        <v>324328</v>
       </c>
       <c r="C2">
-        <v>9.0787499999999994</v>
+        <v>11.4383</v>
       </c>
     </row>
   </sheetData>
@@ -425,10 +425,10 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.2*0.2)</f>
-        <v>342490.36800000002</v>
+        <v>311354.88</v>
       </c>
       <c r="C2">
-        <v>9.0787499999999994</v>
+        <v>11.4383</v>
       </c>
     </row>
   </sheetData>
@@ -461,10 +461,10 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.2*0.4)</f>
-        <v>328219.93600000005</v>
+        <v>298381.75999999995</v>
       </c>
       <c r="C2">
-        <v>9.0787499999999994</v>
+        <v>11.4383</v>
       </c>
     </row>
   </sheetData>
@@ -497,10 +497,10 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.2*0.6)</f>
-        <v>313949.50400000002</v>
+        <v>285408.64000000001</v>
       </c>
       <c r="C2">
-        <v>9.0787499999999994</v>
+        <v>11.4383</v>
       </c>
     </row>
   </sheetData>
@@ -533,10 +533,10 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.2*0.8)</f>
-        <v>299679.07200000004</v>
+        <v>272435.52</v>
       </c>
       <c r="C2">
-        <v>9.0787499999999994</v>
+        <v>11.4383</v>
       </c>
     </row>
   </sheetData>
@@ -569,10 +569,10 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.2*1)</f>
-        <v>285408.64000000007</v>
+        <v>259462.40000000002</v>
       </c>
       <c r="C2">
-        <v>9.0787499999999994</v>
+        <v>11.4383</v>
       </c>
     </row>
   </sheetData>
